--- a/lab6/Lab-6-ponmook.xlsx
+++ b/lab6/Lab-6-ponmook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3284687-AC21-411C-B7F0-C6811A6C439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9572FB61-05EF-4D96-ADE0-35A6D5775FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA5FD5B2-F1A5-CC4D-AC35-9F4910FC588E}"/>
   </bookViews>
@@ -759,7 +759,7 @@
         <c:axId val="448504256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
+          <c:max val="9"/>
           <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1482,10 +1482,10 @@
       <xdr:rowOff>167913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>924198</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>124732</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>92</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1512AA90-C14F-514C-A0B9-0626AFD9E432}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="84" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
